--- a/municipal/ENG/Population/Share of urban population/Khobi.xlsx
+++ b/municipal/ENG/Population/Share of urban population/Khobi.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\12 - ცხრილები და რელიზები\მუნიციპალური სტატისტიკა (რუკა)\ინგლისური\cx 30 - eng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\123დემოგრაფია და მოსახლეობა\მოსახლეობა ქარ. EN\2. Share of urban population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D455681B-75A7-421C-A1C4-9C1C4C385ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571BF121-7CCA-4E8C-8CEB-775D51865BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="555" windowWidth="12675" windowHeight="12885" tabRatio="851" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="17940" windowHeight="10350" tabRatio="851" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (4)" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="1" sheetId="37" r:id="rId2"/>
+    <sheet name="Khobi" sheetId="37" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,10 +62,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +128,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -142,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -265,13 +272,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -302,15 +320,6 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -332,12 +341,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,22 +645,22 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -649,7 +668,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -657,7 +676,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="30">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>1</v>
@@ -669,7 +688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>1980</v>
       </c>
@@ -681,7 +700,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>1981</v>
       </c>
@@ -693,7 +712,7 @@
       </c>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>1982</v>
       </c>
@@ -705,7 +724,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>1983</v>
       </c>
@@ -717,7 +736,7 @@
       </c>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>1984</v>
       </c>
@@ -729,7 +748,7 @@
       </c>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="4">
         <v>1985</v>
       </c>
@@ -741,7 +760,7 @@
       </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="4">
         <v>1986</v>
       </c>
@@ -753,7 +772,7 @@
       </c>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="4">
         <v>1987</v>
       </c>
@@ -765,7 +784,7 @@
       </c>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="4">
         <v>1988</v>
       </c>
@@ -777,7 +796,7 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
         <v>1989</v>
       </c>
@@ -789,7 +808,7 @@
       </c>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>1990</v>
       </c>
@@ -801,7 +820,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>1991</v>
       </c>
@@ -813,7 +832,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>1992</v>
       </c>
@@ -825,7 +844,7 @@
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>1993</v>
       </c>
@@ -837,7 +856,7 @@
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>1994</v>
       </c>
@@ -845,7 +864,7 @@
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>1995</v>
       </c>
@@ -853,7 +872,7 @@
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>1996</v>
       </c>
@@ -861,7 +880,7 @@
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>1997</v>
       </c>
@@ -869,7 +888,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>1998</v>
       </c>
@@ -877,7 +896,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>1999</v>
       </c>
@@ -885,7 +904,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>2000</v>
       </c>
@@ -893,7 +912,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>2001</v>
       </c>
@@ -901,7 +920,7 @@
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>2002</v>
       </c>
@@ -909,7 +928,7 @@
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>2003</v>
       </c>
@@ -917,7 +936,7 @@
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>2004</v>
       </c>
@@ -925,7 +944,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="4">
         <v>2005</v>
       </c>
@@ -933,7 +952,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="4">
         <v>2006</v>
       </c>
@@ -941,7 +960,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
         <v>2007</v>
       </c>
@@ -949,7 +968,7 @@
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>2008</v>
       </c>
@@ -957,7 +976,7 @@
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="4">
         <v>2009</v>
       </c>
@@ -965,7 +984,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="4">
         <v>2010</v>
       </c>
@@ -973,7 +992,7 @@
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="4">
         <v>2011</v>
       </c>
@@ -981,7 +1000,7 @@
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="4">
         <v>2012</v>
       </c>
@@ -989,7 +1008,7 @@
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="4">
         <v>2013</v>
       </c>
@@ -997,7 +1016,7 @@
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="4">
         <v>2014</v>
       </c>
@@ -1005,7 +1024,7 @@
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="4">
         <v>2015</v>
       </c>
@@ -1013,7 +1032,7 @@
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="4">
         <v>2016</v>
       </c>
@@ -1021,7 +1040,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="4">
         <v>2017</v>
       </c>
@@ -1029,7 +1048,7 @@
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="4">
         <v>2018</v>
       </c>
@@ -1037,7 +1056,7 @@
       <c r="C43" s="10"/>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="4">
         <v>2019</v>
       </c>
@@ -1045,7 +1064,7 @@
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>2020</v>
       </c>
@@ -1053,7 +1072,7 @@
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="4">
         <v>2021</v>
       </c>
@@ -1061,7 +1080,7 @@
       <c r="C46" s="10"/>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="4">
         <v>2022</v>
       </c>
@@ -1080,277 +1099,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="22" customWidth="1"/>
-    <col min="3" max="44" width="5.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="17.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="19" customWidth="1"/>
+    <col min="3" max="44" width="5.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:4" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="23">
         <v>1994</v>
       </c>
-      <c r="B5" s="25">
-        <v>14.903846153846153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="B5" s="24">
+        <v>14.903846153846199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="25">
         <v>1995</v>
       </c>
       <c r="B6" s="26">
-        <v>15.030741937835668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+        <v>15.0307419378357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="25">
         <v>1996</v>
       </c>
       <c r="B7" s="26">
-        <v>15.173172072567345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+        <v>15.173172072567301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="25">
         <v>1997</v>
       </c>
       <c r="B8" s="26">
-        <v>15.030265722786499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+        <v>15.030265722786501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="25">
         <v>1998</v>
       </c>
       <c r="B9" s="26">
-        <v>14.955766110035077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+        <v>14.9557661100351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="25">
         <v>1999</v>
       </c>
       <c r="B10" s="26">
-        <v>15.025906735751294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+        <v>15.025906735751301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="25">
         <v>2000</v>
       </c>
       <c r="B11" s="26">
-        <v>14.452774481141637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+        <v>14.452774481141599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="A12" s="25">
         <v>2001</v>
       </c>
       <c r="B12" s="26">
-        <v>15.549302666992904</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+        <v>15.549302666992901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="25">
         <v>2002</v>
       </c>
       <c r="B13" s="26">
-        <v>15.592768899467302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+        <v>15.5927688994673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="25">
         <v>2003</v>
       </c>
       <c r="B14" s="26">
-        <v>15.471676597200446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+        <v>15.4716765972004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="A15" s="25">
         <v>2004</v>
       </c>
       <c r="B15" s="26">
-        <v>15.341645310835325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+        <v>15.3416453108353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="A16" s="25">
         <v>2005</v>
       </c>
       <c r="B16" s="26">
-        <v>15.195495050941918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+        <v>15.195495050941901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1">
+      <c r="A17" s="25">
         <v>2006</v>
       </c>
       <c r="B17" s="26">
-        <v>15.036338061188609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+        <v>15.0363380611886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1">
+      <c r="A18" s="25">
         <v>2007</v>
       </c>
       <c r="B18" s="26">
-        <v>14.893051288111558</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+        <v>14.8930512881116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1">
+      <c r="A19" s="25">
         <v>2008</v>
       </c>
       <c r="B19" s="26">
-        <v>14.723175645426057</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+        <v>14.7231756454261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1">
+      <c r="A20" s="25">
         <v>2009</v>
       </c>
       <c r="B20" s="26">
-        <v>14.537883588304517</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+        <v>14.537883588304499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1">
+      <c r="A21" s="25">
         <v>2010</v>
       </c>
       <c r="B21" s="26">
-        <v>14.378663720344964</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+        <v>14.378663720344999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1">
+      <c r="A22" s="25">
         <v>2011</v>
       </c>
       <c r="B22" s="26">
-        <v>14.241611575402272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+        <v>14.241611575402301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1">
+      <c r="A23" s="25">
         <v>2012</v>
       </c>
       <c r="B23" s="26">
-        <v>14.13579265384004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+        <v>14.135792653839999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1">
+      <c r="A24" s="25">
         <v>2013</v>
       </c>
       <c r="B24" s="26">
-        <v>14.06134098751895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+        <v>14.0613409875189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" customHeight="1">
+      <c r="A25" s="25">
         <v>2014</v>
       </c>
       <c r="B25" s="26">
-        <v>13.93708975108858</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+        <v>13.9370897510886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1">
+      <c r="A26" s="25">
         <v>2015</v>
       </c>
       <c r="B26" s="26">
-        <v>13.740282743464427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+        <v>13.7402827434644</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1">
+      <c r="A27" s="25">
         <v>2016</v>
       </c>
       <c r="B27" s="26">
         <v>13.5697430954834</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+    <row r="28" spans="1:2" ht="15" customHeight="1">
+      <c r="A28" s="25">
         <v>2017</v>
       </c>
       <c r="B28" s="26">
-        <v>13.374249679638497</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+        <v>13.374249679638501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1">
+      <c r="A29" s="25">
         <v>2018</v>
       </c>
       <c r="B29" s="26">
-        <v>13.204773139125381</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+        <v>13.2047731391254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" customHeight="1">
+      <c r="A30" s="25">
         <v>2019</v>
       </c>
       <c r="B30" s="26">
-        <v>13.040754533115232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+        <v>13.0407545331152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" customHeight="1">
+      <c r="A31" s="25">
         <v>2020</v>
       </c>
       <c r="B31" s="26">
-        <v>12.937335888155561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+        <v>12.9373358881556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="21" customFormat="1">
+      <c r="A32" s="25">
         <v>2021</v>
       </c>
       <c r="B32" s="26">
-        <v>12.806588506077823</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+        <v>12.8065885060778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="21" customFormat="1">
+      <c r="A33" s="25">
         <v>2022</v>
       </c>
-      <c r="B33" s="27">
-        <v>12.611747321758404</v>
+      <c r="B33" s="26">
+        <v>12.611747321758401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="21" customFormat="1">
+      <c r="A34" s="25">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="26">
+        <v>12.5411184210526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" customHeight="1" thickBot="1">
+      <c r="A35" s="27">
+        <v>2024</v>
+      </c>
+      <c r="B35" s="28">
+        <v>12.099199375122</v>
       </c>
     </row>
   </sheetData>
